--- a/raw-data-prep/raw_data/Writing_Task_Evaluation_CH.xlsx
+++ b/raw-data-prep/raw_data/Writing_Task_Evaluation_CH.xlsx
@@ -11,56 +11,35 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$125</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Subject</t>
   </si>
   <si>
-    <t>A</t>
+    <t>rating1</t>
   </si>
   <si>
-    <t>B</t>
+    <t>rating2</t>
   </si>
   <si>
-    <t>C</t>
+    <t>rating3</t>
   </si>
   <si>
-    <t>D</t>
+    <t>rating4</t>
   </si>
   <si>
-    <t>E</t>
+    <t>rating5</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>10b</t>
-  </si>
-  <si>
-    <t>10a</t>
-  </si>
-  <si>
-    <t>2/4a</t>
-  </si>
-  <si>
-    <t>2/4b</t>
+    <t>rating6</t>
   </si>
 </sst>
 </file>
@@ -401,7 +380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -455,24 +436,6 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -570,24 +533,6 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -613,9 +558,6 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
       <c r="B10">
         <v>4</v>
       </c>
@@ -2729,9 +2671,6 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
       <c r="B102">
         <v>5</v>
       </c>
@@ -2752,9 +2691,6 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>13</v>
-      </c>
       <c r="B103">
         <v>3</v>
       </c>
@@ -2775,9 +2711,6 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>14</v>
-      </c>
       <c r="B104">
         <v>0</v>
       </c>
@@ -3281,6 +3214,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G125"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
